--- a/淘宝店/账目/蚊香账目.xlsx
+++ b/淘宝店/账目/蚊香账目.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
   <si>
     <t>序号</t>
   </si>
@@ -87,6 +87,9 @@
     <t>月来月美丽88</t>
   </si>
   <si>
+    <t>是</t>
+  </si>
+  <si>
     <t>杨晨</t>
   </si>
   <si>
@@ -126,9 +129,6 @@
     <t>王澎和赵然然</t>
   </si>
   <si>
-    <t>是</t>
-  </si>
-  <si>
     <t>金光汉</t>
   </si>
   <si>
@@ -172,6 +172,12 @@
   </si>
   <si>
     <t>艾真畜牧专用蚊香</t>
+  </si>
+  <si>
+    <t>尹中</t>
+  </si>
+  <si>
+    <t>et_donald</t>
   </si>
 </sst>
 </file>
@@ -179,12 +185,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,6 +221,106 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,113 +335,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,9 +349,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,55 +371,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,127 +545,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,15 +580,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -601,15 +591,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,9 +612,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -653,6 +645,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -667,168 +677,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -845,9 +844,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1203,7 +1199,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1242,7 +1238,7 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
@@ -1390,8 +1386,12 @@
       <c r="F7" s="4">
         <v>43163</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="4">
+        <v>43166</v>
+      </c>
       <c r="I7" s="3"/>
       <c r="J7" s="1"/>
     </row>
@@ -1400,13 +1400,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="3">
         <v>17689401284</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8" s="3">
         <v>230</v>
@@ -1417,7 +1417,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -1426,13 +1426,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="3">
         <v>18620957418</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9" s="3">
         <v>23</v>
@@ -1450,13 +1450,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="3">
         <v>13203170955</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E10" s="3">
         <v>230</v>
@@ -1467,7 +1467,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J10" s="1"/>
     </row>
@@ -1476,13 +1476,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="3">
         <v>18684693095</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E11" s="3">
         <v>23</v>
@@ -1493,7 +1493,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J11" s="1"/>
     </row>
@@ -1502,13 +1502,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" s="3">
         <v>13701173927</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E12" s="3">
         <v>23</v>
@@ -1517,7 +1517,7 @@
         <v>43162</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="H12" s="4">
         <v>43162</v>
@@ -1545,7 +1545,7 @@
         <v>43162</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="H13" s="4">
         <v>43162</v>
@@ -1577,7 +1577,7 @@
         <v>43162</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="H14" s="4">
         <v>43162</v>
@@ -1607,7 +1607,7 @@
         <v>43161</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="H15" s="4">
         <v>43162</v>
@@ -1637,7 +1637,7 @@
         <v>43160</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="H16" s="4">
         <v>43160</v>
@@ -1669,7 +1669,7 @@
         <v>43160</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="H17" s="4">
         <v>43160</v>
@@ -1682,14 +1682,30 @@
       </c>
     </row>
     <row r="18" ht="18.75" spans="1:10">
-      <c r="A18" s="1"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="3">
+        <v>13661639783</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="3">
+        <v>230</v>
+      </c>
+      <c r="F18" s="4">
+        <v>43160</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="4">
+        <v>43166</v>
+      </c>
       <c r="I18" s="3"/>
       <c r="J18" s="1"/>
     </row>
